--- a/pred_ohlcv/54_21/2020-01-22 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 BCD ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>41370.35314463002</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>37203.95234463002</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>37203.95234463002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>36460.53994463001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>19485.47905969001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>19485.47905969001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>19485.47905969001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>18445.47905969001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>18665.87905969001</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>18687.87905969001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>21587.87905969001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>21587.87905969001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>21587.87905969001</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>21587.87905969001</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>22843.66115969001</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>22843.66115969001</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>25898.66115969001</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>28118.66115969001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>37583.85525969001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>37206.93975969001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>37231.93975969001</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>37231.93975969001</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>36952.31055969001</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>36972.31055969001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>37143.12801684</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>37143.12801684</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>37523.10641684</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>37523.10641684</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>38164.84081684001</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>43168.26831143</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>43168.26831143</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>43168.26831143</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>43817.66871143</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>42045.85271143</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>42045.85271143</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>56881.03521143</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>55333.54661684</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>55333.54661684</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>55382.79491684</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>55368.76571684</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>55368.76571684</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>82337.02845961999</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>82337.02845961999</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>82337.02845961999</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>82648.99733554</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>82647.80733554</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>82647.80733554</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>96395.58122967</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>96385.58122967</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>97781.40742967</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>97781.40742967</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>97781.40742967</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>101918.88932967</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>117732.83655962</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>117732.83655962</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>117732.83655962</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>112511.07128957</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>112511.07128957</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>112392.47288957</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>110258.17038957</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>109946.78858957</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>104571.62148957</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>104571.62148957</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>99669.78528956998</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>98746.61558956998</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>97936.61558956998</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>74254.54118780002</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-7415465.436166429</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-7415465.436166429</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-7414435.530666429</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-7410547.323266429</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-7410547.323266429</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-7414784.48689302</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-7414784.48689302</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-7406559.040493019</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-7402783.540193019</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-7404531.113293018</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-7404531.113293018</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-7404531.113293018</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-7404487.501593018</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-7404487.501593018</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-7404487.501593018</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-7404247.453593018</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-7404247.453593018</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-7403982.653593018</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-7403964.736593018</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-7405671.754293019</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-7389808.990246719</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-7387761.509146719</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-7384802.729095827</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-7390155.111695827</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 BCD ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>41370.35314463002</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>37203.95234463002</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>37203.95234463002</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>36460.53994463001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>19485.47905969001</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>19485.47905969001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>19485.47905969001</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>18445.47905969001</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>18665.87905969001</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>18687.87905969001</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>21587.87905969001</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>21587.87905969001</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>21587.87905969001</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>21587.87905969001</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>22843.66115969001</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>22843.66115969001</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>25898.66115969001</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>28118.66115969001</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>37583.85525969001</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>37206.93975969001</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>37231.93975969001</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>37231.93975969001</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>36952.31055969001</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>36972.31055969001</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>37143.12801684</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>37143.12801684</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>37523.10641684</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>37523.10641684</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>38164.84081684001</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>43168.26831143</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>43168.26831143</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>43168.26831143</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>43817.66871143</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>42045.85271143</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>42045.85271143</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>56881.03521143</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>55333.54661684</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>55333.54661684</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>55382.79491684</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>55368.76571684</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>55368.76571684</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>82337.02845961999</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>82337.02845961999</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>82337.02845961999</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>82337.02845961999</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>82648.99733554</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>82647.80733554</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>82647.80733554</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>96395.58122967</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>96385.58122967</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>97781.40742967</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>97781.40742967</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>97781.40742967</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>101918.88932967</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>117732.83655962</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>117732.83655962</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>117732.83655962</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>112511.07128957</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>112511.07128957</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>112392.47288957</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>110258.17038957</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>109946.78858957</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>104571.62148957</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>104571.62148957</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>99669.78528956998</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>98746.61558956998</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>97936.61558956998</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>97936.61558956998</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>90588.62278956998</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>96953.76340793999</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>74254.54118780002</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-7415465.436166429</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-7415465.436166429</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-7414435.530666429</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-7410547.323266429</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-7410547.323266429</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-7406559.040493019</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-7402783.540193019</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-7402783.540193019</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-7402871.140193018</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-7404531.113293018</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-7404531.113293018</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-7404531.113293018</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-7404487.501593018</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-7404487.501593018</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-7404487.501593018</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-7404247.453593018</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-7404247.453593018</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-7403982.653593018</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-7403956.536593018</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-7403967.736593018</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-7403969.736593018</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-7403965.736593018</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-7403964.736593018</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-7403963.736593018</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-7403962.736593018</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-7403912.736593018</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-7403999.271593018</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-7406028.537293019</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-7405678.237293019</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-7405671.754293019</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-7405671.754293019</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-7416300.248293019</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-7415788.986493018</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-7411019.391223438</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-7411676.236753858</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-7411675.236753858</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-7411856.285953858</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-7411640.386904659</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-7411734.986904658</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-7411104.939004659</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-7415262.288504658</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-7415262.288504658</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-7412121.593504658</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-7412121.593504658</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-7411734.410804658</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-7413621.896404658</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-7413621.896404658</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-7413621.896404658</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-7413270.424704659</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-7412968.112604659</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-7415208.112104659</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-7389808.990246719</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-7387761.509146719</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-7384802.729095827</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-7390155.111695827</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
